--- a/src/test/java/TestData/DemoNopRegister.xlsx
+++ b/src/test/java/TestData/DemoNopRegister.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuskanSharma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuskanSharma\IdeaProjects\DemoNopHybrid\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,10 +44,10 @@
     <t>William</t>
   </si>
   <si>
-    <t>james@gmail.com</t>
-  </si>
-  <si>
     <t>jameswilliams</t>
+  </si>
+  <si>
+    <t>jamesadam@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -379,10 +379,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -406,10 +409,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TestData/DemoNopRegister.xlsx
+++ b/src/test/java/TestData/DemoNopRegister.xlsx
@@ -41,13 +41,13 @@
     <t>James</t>
   </si>
   <si>
-    <t>William</t>
-  </si>
-  <si>
     <t>jameswilliams</t>
   </si>
   <si>
-    <t>jamesadam@gmail.com</t>
+    <t>jamesad@gmail.com</t>
+  </si>
+  <si>
+    <t>Addam</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,13 +406,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TestData/DemoNopRegister.xlsx
+++ b/src/test/java/TestData/DemoNopRegister.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>first name</t>
   </si>
@@ -48,6 +49,24 @@
   </si>
   <si>
     <t>Addam</t>
+  </si>
+  <si>
+    <t>city name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -379,7 +398,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,4 +440,50 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+      <c r="D2">
+        <v>1234567890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/TestData/DemoNopRegister.xlsx
+++ b/src/test/java/TestData/DemoNopRegister.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>first name</t>
   </si>
@@ -45,12 +45,6 @@
     <t>jameswilliams</t>
   </si>
   <si>
-    <t>jamesad@gmail.com</t>
-  </si>
-  <si>
-    <t>Addam</t>
-  </si>
-  <si>
     <t>city name</t>
   </si>
   <si>
@@ -67,6 +61,18 @@
   </si>
   <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>jameamm@gmail.com</t>
+  </si>
+  <si>
+    <t>"12345"</t>
+  </si>
+  <si>
+    <t>"1234567890"</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -447,7 +453,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,30 +463,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>12345</v>
-      </c>
-      <c r="D2">
-        <v>1234567890</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
